--- a/Exc2/FURPS_table.xlsx
+++ b/Exc2/FURPS_table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Код</t>
   </si>
@@ -46,6 +46,24 @@
     <t>Подтверждение открытие депозита через код из СМС после проверки менеджером из АБС</t>
   </si>
   <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Сотрудник колл-центра должен обрабатывать заявки с сайта в системе колл-центра и отправлять их далее в АБС</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>Менеджер по депозитным процессам обрабатывает заявки в бек-офисе, подтверждая условия депозита в АБС банка</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>Сотрудник отделения может подать заявку напрямую в АБС, если клиент сразу придет в отделение, чтобы открыть депозит</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
@@ -64,6 +82,12 @@
     <t>Пользователи при работе должны видеть привычные цвета и брендированные элементы</t>
   </si>
   <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>Отклик интерфейса должен занимать милисекунды</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -82,6 +106,9 @@
     <t>Сервисы должны быть доступны в 99,9%</t>
   </si>
   <si>
+    <t>Возможность переключения на резервный цод</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -112,7 +139,10 @@
     <t>Система должна разрабатываться силами ИТ подразделения банка</t>
   </si>
   <si>
-    <t>...</t>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Нужна документация</t>
   </si>
   <si>
     <t>+R</t>
@@ -149,6 +179,42 @@
   </si>
   <si>
     <t>Так как команда уже знает эти технологии</t>
+  </si>
+  <si>
+    <t>+R5</t>
+  </si>
+  <si>
+    <t>Использовать Kafka для очередей сообщений</t>
+  </si>
+  <si>
+    <t>+R6</t>
+  </si>
+  <si>
+    <t>АБС поддерживает только вертикальное масштабирование</t>
+  </si>
+  <si>
+    <t>+R7</t>
+  </si>
+  <si>
+    <t>Следует избегать прямого обмена данными между онлайн-банком и АБС</t>
+  </si>
+  <si>
+    <t>+R8</t>
+  </si>
+  <si>
+    <t>Текущая платформа интернет-банка не совместима с Kafka</t>
+  </si>
+  <si>
+    <t>+R9</t>
+  </si>
+  <si>
+    <t>Не дорабатывать функционал подрядчика в интернет-банке</t>
+  </si>
+  <si>
+    <t>+R10</t>
+  </si>
+  <si>
+    <t>Не нужно нагружать базу АБС данными, которые ей не нужны в данный момент</t>
   </si>
 </sst>
 </file>
@@ -382,7 +448,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1498,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1583,34 +1649,34 @@
       <c r="D7" s="11"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="30" customHeight="1">
+    <row r="8" ht="50.9" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" t="s" s="7">
+      <c r="B8" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="77.45" customHeight="1">
+    <row r="9" ht="50.9" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" t="s" s="7">
+      <c r="B9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" t="s" s="13">
         <v>14</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="47.45" customHeight="1">
+    <row r="10" ht="50.9" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" t="s" s="7">
+      <c r="B10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" t="s" s="13">
         <v>16</v>
       </c>
       <c r="D10" s="11"/>
@@ -1627,7 +1693,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="30" customHeight="1">
+    <row r="12" ht="77.45" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" t="s" s="7">
         <v>19</v>
@@ -1638,7 +1704,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="30" customHeight="1">
+    <row r="13" ht="47.45" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" t="s" s="7">
         <v>21</v>
@@ -1649,29 +1715,29 @@
       <c r="D13" s="11"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="30" customHeight="1">
+    <row r="14" ht="32.45" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="62.45" customHeight="1">
+    <row r="15" ht="30" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="C15" t="s" s="10">
+      <c r="C15" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" ht="91.05" customHeight="1">
+    <row r="16" ht="30" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" t="s" s="7">
         <v>27</v>
@@ -1687,44 +1753,44 @@
       <c r="B17" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="47.45" customHeight="1">
+    <row r="18" ht="30" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="14"/>
+      <c r="C18" t="s" s="10">
         <v>31</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>32</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="14"/>
-      <c r="C19" t="s" s="10">
+      <c r="B19" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="30" customHeight="1">
+    <row r="20" ht="62.45" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="63" customHeight="1">
+    <row r="21" ht="91.05" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" t="s" s="7">
         <v>36</v>
@@ -1732,54 +1798,175 @@
       <c r="C21" t="s" s="10">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="13">
-        <v>38</v>
-      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="33" customHeight="1">
+    <row r="22" ht="30" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s" s="8">
         <v>39</v>
       </c>
-      <c r="C22" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" ht="33" customHeight="1">
+    <row r="23" ht="47.45" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s" s="10">
         <v>41</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>42</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" ht="33" customHeight="1">
+    <row r="24" ht="30" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="C24" t="s" s="10">
+      <c r="D24" s="11"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D24" t="s" s="13">
+      <c r="C25" t="s" s="8">
         <v>45</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" ht="63" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s" s="13">
+        <v>48</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="33" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" ht="33" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" ht="33" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s" s="13">
+        <v>55</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" ht="33" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" ht="33" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" ht="33" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" ht="33" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" ht="33" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" ht="33" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.511811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
